--- a/data/dataDriven/homePageTestCase.xlsx
+++ b/data/dataDriven/homePageTestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="2">
   <si>
     <t>用例编号</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>截图</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,18 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="33">
@@ -690,10 +705,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1074,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1104,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -1144,7 +1161,10 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1166,8 +1186,15 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
